--- a/ЭКОНОМЕТРИКА/Примеры/LABY.xlsx
+++ b/ЭКОНОМЕТРИКА/Примеры/LABY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Учеба 3 курс 2 семестр\Studies\ЭКОНОМЕТРИКА\Примеры\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3DE02A-65C7-4EB8-8B1D-757A92EE5030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E149C1-2184-4C9D-A2E5-4A6DD2B3106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="690" windowWidth="15960" windowHeight="14355" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="120" windowWidth="15060" windowHeight="14970" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="данные" sheetId="1" r:id="rId1"/>
@@ -26,20 +26,34 @@
     <definedName name="solver_adj" localSheetId="2" hidden="1">'лаба 2'!$F$3:$F$5</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'лаба 2'!$D$62</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'лаба 5.1'!$G$3</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'лаба 5.2'!$O$18</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -12882,7 +12896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -16748,7 +16762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="J16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
@@ -18666,7 +18680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O7" sqref="O7:R7"/>
     </sheetView>
   </sheetViews>
@@ -22366,8 +22380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25676,8 +25690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z151"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29722,8 +29736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30482,6 +30496,12 @@
       <c r="D61" t="s">
         <v>132</v>
       </c>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="129"/>
+      <c r="J61" s="129"/>
       <c r="M61" s="23">
         <v>1.4054618667371628</v>
       </c>
@@ -30727,8 +30747,9 @@
       <c r="E76" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H65:N65"/>
+    <mergeCell ref="E61:J61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
